--- a/biology/Biologie cellulaire et moléculaire/Philippa_Marrack/Philippa_Marrack.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Philippa_Marrack/Philippa_Marrack.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippa "Pippa" Marrack, née le 18 juin 1945 à Ewell, est une biochimiste et immunologue américaine d'origine britannique[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippa "Pippa" Marrack, née le 18 juin 1945 à Ewell, est une biochimiste et immunologue américaine d'origine britannique. 
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle enseigne et dirige des recherches à l'Anschutz Medical Campus de l'Université du Colorado à Denver et au National Jewish Health, où elle travaille avec son mari, John Kappler[2].
-Elle a reçu le prix L'Oréal-Unesco pour les femmes et la science en 2004 pour ses recherches sur le rôle des Lymphocytes T dans le système immunitaire et pour avoir découvert les superantigènes, à l'origine du syndrome du choc toxique[3]. 
-Elle est membre de la Royal Society depuis 1987 et de l'académie nationale des sciences depuis 1989. En 2015, Elle a reçu le Prix Wolf de médecine[4] et a été inscrite au National Women's Hall of Fame[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle enseigne et dirige des recherches à l'Anschutz Medical Campus de l'Université du Colorado à Denver et au National Jewish Health, où elle travaille avec son mari, John Kappler.
+Elle a reçu le prix L'Oréal-Unesco pour les femmes et la science en 2004 pour ses recherches sur le rôle des Lymphocytes T dans le système immunitaire et pour avoir découvert les superantigènes, à l'origine du syndrome du choc toxique. 
+Elle est membre de la Royal Society depuis 1987 et de l'académie nationale des sciences depuis 1989. En 2015, Elle a reçu le Prix Wolf de médecine et a été inscrite au National Women's Hall of Fame.
 </t>
         </is>
       </c>
